--- a/image/間引き/間引き.xlsx
+++ b/image/間引き/間引き.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\Desktop\間引き\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\BitmapTools\image\間引き\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FEAEFA-E913-4E81-A15D-1CF2FD07A972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB2C63-5923-4EEB-9DAF-578061E51DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319A7889-6987-4AED-8C06-415BFBC5F8D1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="9">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -2178,9 +2178,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F5C97-988E-4B32-B7CD-31E2C1D3DA1F}">
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3546,9 +3548,7 @@
     <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12"/>
       <c r="B56" s="5"/>
-      <c r="E56" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="1" t="s">
         <v>4</v>
       </c>
@@ -3558,9 +3558,7 @@
       <c r="H56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I56" s="7"/>
       <c r="N56" s="8"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
@@ -3600,15 +3598,13 @@
     <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C58" s="7"/>
       <c r="J58" s="7"/>
       <c r="N58" s="8"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="13"/>
+      <c r="R58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="AC58" s="8"/>
       <c r="AD58" s="12"/>
@@ -3638,9 +3634,7 @@
     <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C60" s="7"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +3642,7 @@
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="13"/>
+      <c r="R60" s="7"/>
       <c r="AA60" s="1" t="s">
         <v>4</v>
       </c>
@@ -3722,9 +3716,7 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="5"/>
       <c r="T64" s="7"/>
-      <c r="AA64" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
       <c r="AC64" s="8"/>
       <c r="AD64" s="12"/>
@@ -3744,12 +3736,8 @@
       <c r="S65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z65" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
       <c r="AC65" s="8"/>
       <c r="AD65" s="12"/>
     </row>
@@ -3757,17 +3745,21 @@
       <c r="A66" s="12"/>
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="N66" s="8"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="7"/>
-      <c r="V66" s="1" t="s">
+      <c r="V66" s="6" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="1" t="s">
@@ -3780,11 +3772,15 @@
     <row r="67" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12"/>
       <c r="B67" s="5"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="N67" s="8"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
@@ -3793,7 +3789,7 @@
       <c r="T67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="U67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AC67" s="8"/>
@@ -3863,16 +3859,438 @@
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
     </row>
+    <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+    </row>
+    <row r="71" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="12"/>
+      <c r="B71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="12"/>
+    </row>
+    <row r="72" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="12"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="12"/>
+    </row>
+    <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="12"/>
+      <c r="B73" s="5"/>
+      <c r="E73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="5"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X73" s="7"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="12"/>
+    </row>
+    <row r="74" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="12"/>
+      <c r="B74" s="5"/>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="5"/>
+      <c r="S74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y74" s="7"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="12"/>
+    </row>
+    <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="12"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="13"/>
+      <c r="Y75" s="7"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="12"/>
+    </row>
+    <row r="76" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="12"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="12"/>
+    </row>
+    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="12"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="13"/>
+      <c r="AA77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="12"/>
+    </row>
+    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="12"/>
+      <c r="B78" s="5"/>
+      <c r="D78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="5"/>
+      <c r="S78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="12"/>
+    </row>
+    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="12"/>
+      <c r="B79" s="5"/>
+      <c r="D79" s="7"/>
+      <c r="M79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N79" s="8"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="12"/>
+    </row>
+    <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="12"/>
+      <c r="B80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="M80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" s="8"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="5"/>
+      <c r="T80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="12"/>
+    </row>
+    <row r="81" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="12"/>
+      <c r="B81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="5"/>
+      <c r="T81" s="7"/>
+      <c r="AA81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="12"/>
+    </row>
+    <row r="82" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="12"/>
+      <c r="B82" s="5"/>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="5"/>
+      <c r="S82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="12"/>
+    </row>
+    <row r="83" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="12"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="7"/>
+      <c r="V83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="7"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="12"/>
+    </row>
+    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="12"/>
+      <c r="B84" s="5"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="5"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="12"/>
+    </row>
+    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="12"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="11"/>
+      <c r="AD85" s="12"/>
+    </row>
+    <row r="86" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B54:N54"/>
-    <mergeCell ref="Q54:AC54"/>
+  <mergeCells count="10">
+    <mergeCell ref="B71:N71"/>
+    <mergeCell ref="Q71:AC71"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="Q3:AC3"/>
     <mergeCell ref="B20:N20"/>
     <mergeCell ref="Q20:AC20"/>
     <mergeCell ref="B37:N37"/>
     <mergeCell ref="Q37:AC37"/>
+    <mergeCell ref="B54:N54"/>
+    <mergeCell ref="Q54:AC54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
